--- a/src/excel_template/cdQC_trend/XY scan difference category Trend.xlsx
+++ b/src/excel_template/cdQC_trend/XY scan difference category Trend.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A76D4A-066F-8144-97B2-A834BF686E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="720" windowWidth="19120" windowHeight="10640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="720" windowWidth="19120" windowHeight="10640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -57,17 +56,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0_ "/>
-    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,14 +74,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -91,7 +90,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -127,24 +126,24 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,7 +160,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -179,7 +178,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -206,6 +205,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -263,7 +263,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$633</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="628"/>
               </c:numCache>
             </c:numRef>
@@ -313,7 +313,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57238656"/>
@@ -347,6 +347,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -360,7 +361,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57235712"/>
@@ -381,6 +382,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -389,7 +391,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -409,7 +411,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -424,7 +426,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -451,6 +453,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -508,7 +511,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$633</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="628"/>
               </c:numCache>
             </c:numRef>
@@ -559,7 +562,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57223424"/>
@@ -595,6 +598,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -608,7 +612,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57221504"/>
@@ -642,7 +646,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -656,7 +660,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -683,6 +687,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -740,7 +745,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$633</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="628"/>
               </c:numCache>
             </c:numRef>
@@ -800,7 +805,7 @@
             <c:numRef>
               <c:f>Trend!$A$6:$A$633</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="628"/>
               </c:numCache>
             </c:numRef>
@@ -851,7 +856,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP" sz="1100"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57533568"/>
@@ -887,6 +892,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -900,7 +906,7 @@
             <a:pPr>
               <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57510912"/>
@@ -920,6 +926,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -928,7 +935,7 @@
           <a:pPr>
             <a:defRPr lang="ja-JP"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -948,7 +955,7 @@
       <a:pPr>
         <a:defRPr sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1249,7 +1256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1324,23 +1331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1376,23 +1366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1568,27 +1541,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.6328125" style="5" customWidth="1"/>
     <col min="6" max="7" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -1596,14 +1569,14 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -1611,7 +1584,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -1623,7 +1596,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1646,1221 +1619,1221 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="10"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="10"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="10"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="10"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="10"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="10"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="10"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="10"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="10"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="10"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="10"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="10"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="10"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="10"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="10"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="10"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="10"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="10"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="10"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="10"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="10"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="10"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="10"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="10"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="10"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="10"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="10"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="10"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="10"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="10"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="10"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="10"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="12"/>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="10"/>
       <c r="B324" s="12"/>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="10"/>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="10"/>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="10"/>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="10"/>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="10"/>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="10"/>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="10"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="10"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="10"/>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="10"/>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="10"/>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="10"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="10"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="10"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="10"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="10"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="10"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="10"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="10"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="10"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="10"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="10"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="10"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="10"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="10"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="10"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="10"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="10"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="10"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="10"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="10"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="10"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="10"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="10"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="10"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="10"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="10"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="10"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="10"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="10"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="10"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="10"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="10"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="10"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="10"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="10"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="10"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="10"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="10"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="10"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="10"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="10"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="10"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="10"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="10"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="10"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="10"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="10"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="10"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="10"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="10"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="10"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="10"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="10"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="10"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="10"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="10"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="10"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="10"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="10"/>
     </row>
   </sheetData>
@@ -2873,15 +2846,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2890,15 +2861,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
